--- a/定标数据图.xlsx
+++ b/定标数据图.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>ng/mL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,9 +118,6 @@
   </si>
   <si>
     <t>Testosterone(ng/mL)</t>
-  </si>
-  <si>
-    <t>Testosterone(ng/mL)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -154,6 +151,20 @@
   <si>
     <t>吸光度</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Testosterone(ng/mL)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>透光度</t>
+  </si>
+  <si>
+    <t>透光度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地塞米松(ng/mL)</t>
   </si>
 </sst>
 </file>
@@ -1004,10 +1015,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15034492563429572"/>
-          <c:y val="0.10516689529035209"/>
-          <c:w val="0.78065507436570425"/>
-          <c:h val="0.74666983499490547"/>
+          <c:x val="0.13056714785651796"/>
+          <c:y val="8.7962962962962965E-2"/>
+          <c:w val="0.81232174103237098"/>
+          <c:h val="0.74350320793234181"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1016,17 +1027,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Testosterone!$B$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>透光率</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1053,7 +1053,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Testosterone!$A$16:$A$19</c:f>
+              <c:f>Testosterone!$A$23:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1074,21 +1074,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Testosterone!$B$16:$B$19</c:f>
+              <c:f>Testosterone!$C$23:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.15190000000000001</c:v>
+                  <c:v>0.17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.3E-3</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0500000000000001E-2</c:v>
+                  <c:v>0.09</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1300000000000001E-2</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1096,7 +1096,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2669-4BF2-9CA3-8C712D96677E}"/>
+              <c16:uniqueId val="{00000000-1185-4FEB-8C80-6A62D3EBB239}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1108,11 +1108,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="697914416"/>
-        <c:axId val="697916712"/>
+        <c:axId val="603154408"/>
+        <c:axId val="603154736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="697914416"/>
+        <c:axId val="603154408"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1212,12 +1212,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="697916712"/>
-        <c:crossesAt val="1.0000000000000002E-3"/>
+        <c:crossAx val="603154736"/>
+        <c:crossesAt val="1.0000000000000002E-2"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="697916712"/>
+        <c:axId val="603154736"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1317,13 +1317,782 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="697914416"/>
-        <c:crossesAt val="0.1"/>
+        <c:crossAx val="603154408"/>
+        <c:crossesAt val="1.0000000000000002E-2"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln w="25400">
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13415048118985126"/>
+          <c:y val="0.11574074074074074"/>
+          <c:w val="0.79329396325459323"/>
+          <c:h val="0.73727653834937301"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>地塞米松!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>吸光度</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>地塞米松!$A$7:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>地塞米松!$B$7:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88.89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100.18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-482A-41D4-AD16-F1D67C7AEAEF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="466165952"/>
+        <c:axId val="466165296"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="466165952"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>地塞米松</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>(ng/mL)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="466165296"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="466165296"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>abs</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="466165952"/>
+        <c:crossesAt val="1.0000000000000002E-2"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14049813413042175"/>
+          <c:y val="9.6690164687268501E-2"/>
+          <c:w val="0.77432174103237095"/>
+          <c:h val="0.73727653834937301"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>地塞米松!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>透光度</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>地塞米松!$A$14:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>地塞米松!$B$14:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.38759689922480617</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1249859376757791E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9820323417847863E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-07BC-40F8-A45C-EF15D09AE4C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="609247880"/>
+        <c:axId val="609250176"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="609247880"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>地塞米松</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>(ng/mL)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="609250176"/>
+        <c:crossesAt val="1.0000000000000002E-3"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="609250176"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>O.D</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="5.8119185013999784E-2"/>
+              <c:y val="0.46906557601498483"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="609247880"/>
+        <c:crossesAt val="1.0000000000000002E-3"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
@@ -1486,6 +2255,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2519,6 +3368,1038 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3117,23 +4998,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1">
+        <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38395734-E748-47ED-BD9C-231472A47BEC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAC6D947-FEA6-494B-A445-40EC7BD3E7AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3146,6 +5027,83 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DCB05C7-6024-40ED-84B1-D4DE09ED8896}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0A87B9B-37A0-4F37-BB55-EB2E0671AD2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3419,7 +5377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -3591,7 +5549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -3636,7 +5594,7 @@
         <v>47.057772999999997</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -3682,7 +5640,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10">
         <v>1.9358097810662589</v>
@@ -3697,7 +5655,7 @@
         <v>1.6726313704240123</v>
       </c>
       <c r="G10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H10">
         <v>0.86260064999999997</v>
@@ -3717,7 +5675,7 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
         <v>18</v>
@@ -3795,10 +5753,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3810,7 +5768,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1">
         <v>0.2</v>
@@ -3842,7 +5800,7 @@
         <v>29.75</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -3861,7 +5819,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8">
         <v>0.2</v>
@@ -3895,7 +5853,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
@@ -3909,7 +5867,7 @@
         <v>0.15190000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -3917,7 +5875,7 @@
         <v>6.3E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4</v>
       </c>
@@ -3925,12 +5883,56 @@
         <v>1.0500000000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
       <c r="B19">
         <v>3.1300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.2</v>
+      </c>
+      <c r="B23">
+        <v>1.7</v>
+      </c>
+      <c r="C23">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>1.2</v>
+      </c>
+      <c r="C24">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>0.9</v>
+      </c>
+      <c r="C25">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>16</v>
+      </c>
+      <c r="B26">
+        <v>0.6</v>
+      </c>
+      <c r="C26">
+        <v>0.06</v>
       </c>
     </row>
   </sheetData>
@@ -3943,10 +5945,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3957,37 +5959,117 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2">
-        <v>100.18</v>
+        <v>2.58</v>
       </c>
       <c r="C2">
         <v>88.89</v>
       </c>
       <c r="D2">
+        <v>100.18</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.01</v>
+      </c>
+      <c r="B7">
         <v>2.58</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>31</v>
+      <c r="C7">
+        <f>1/B7</f>
+        <v>0.38759689922480617</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>88.89</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:C9" si="0">1/B8</f>
+        <v>1.1249859376757791E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1000</v>
+      </c>
+      <c r="B9">
+        <v>100.18</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>9.9820323417847863E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.01</v>
+      </c>
+      <c r="B14">
+        <v>0.38759689922480617</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>1.1249859376757791E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1000</v>
+      </c>
+      <c r="B16">
+        <v>9.9820323417847863E-3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/定标数据图.xlsx
+++ b/定标数据图.xlsx
@@ -325,390 +325,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.86260064999999997</c:v>
+                  <c:v>0.81260065000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.75448870999999995</c:v>
+                  <c:v>0.70448871000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.51122274000000001</c:v>
+                  <c:v>0.62122274</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.47057772999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A043-45FA-BE4F-EE69E45ECEF2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="710423128"/>
-        <c:axId val="710423456"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="710423128"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>Cortisol(ng/mL)</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="710423456"/>
-        <c:crossesAt val="0.1"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="710423456"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-          <c:max val="10"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>O.D</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="710423128"/>
-        <c:crossesAt val="0.1"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Cortisol!$H$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>O.D</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Cortisol!$G$15:$G$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>500</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Cortisol!$H$15:$H$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.86260064999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.75448870999999995</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.51122274000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.47057772999999997</c:v>
+                  <c:v>0.47057773000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -994,6 +620,456 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13151902887139111"/>
+          <c:y val="0.10094970460847873"/>
+          <c:w val="0.77102427821522312"/>
+          <c:h val="0.75366433877744088"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cortisol!$H$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>O.D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.3539723197250947E-3"/>
+                  <c:y val="2.7839384660250804E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Cortisol!$G$15:$G$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Cortisol!$H$15:$H$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.81260065000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70448871000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62122274</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.47057773000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A043-45FA-BE4F-EE69E45ECEF2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="710423128"/>
+        <c:axId val="710423456"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="710423128"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
+                  <a:t>Cortisol(ng/mL)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.39903116797900268"/>
+              <c:y val="0.90715524517032542"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="710423456"/>
+        <c:crossesAt val="0.1"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="710423456"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="700"/>
+                  <a:t>O.D</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.3659120734908135E-2"/>
+              <c:y val="0.44099264535395971"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="710423128"/>
+        <c:crossesAt val="0.1"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -1015,10 +1091,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13056714785651796"/>
-          <c:y val="8.7962962962962965E-2"/>
-          <c:w val="0.81232174103237098"/>
-          <c:h val="0.74350320793234181"/>
+          <c:x val="0.16116439607676752"/>
+          <c:y val="0.10881501825504676"/>
+          <c:w val="0.7620589819576612"/>
+          <c:h val="0.73464386409523064"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1051,6 +1127,64 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Testosterone!$A$23:$A$26</c:f>
@@ -1079,13 +1213,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.17</c:v>
+                  <c:v>0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.09</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.06</c:v>
@@ -1126,7 +1260,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1139,13 +1273,21 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
                   <a:t>Testosterone(ng/mL)</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.38193535667196532"/>
+              <c:y val="0.92541312335958004"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1159,7 +1301,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1197,7 +1339,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1231,7 +1373,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1244,13 +1386,21 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
                   <a:t>O.D</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.2777380100214746E-2"/>
+              <c:y val="0.43356846019247591"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1264,7 +1414,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1302,7 +1452,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1768,8 +1918,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14049813413042175"/>
-          <c:y val="9.6690164687268501E-2"/>
+          <c:x val="0.14049813981980905"/>
+          <c:y val="0.10463619044043809"/>
           <c:w val="0.77432174103237095"/>
           <c:h val="0.73727653834937301"/>
         </c:manualLayout>
@@ -1815,19 +1965,75 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.3471539492098587E-4"/>
+                  <c:y val="4.5257144061811548E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>地塞米松!$A$14:$A$16</c:f>
+              <c:f>地塞米松!$A$14:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1835,18 +2041,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>地塞米松!$B$14:$B$16</c:f>
+              <c:f>地塞米松!$B$14:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.38759689922480617</c:v>
+                  <c:v>0.28759689922480602</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1249859376757791E-2</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.9820323417847863E-3</c:v>
+                  <c:v>0.232498593767578</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.39820323417847E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1884,7 +2096,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1897,11 +2109,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="800"/>
                   <a:t>地塞米松</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
                   <a:t>(ng/mL)</a:t>
                 </a:r>
               </a:p>
@@ -1920,7 +2132,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1958,7 +2170,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1982,6 +2194,7 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:min val="1.0000000000000002E-3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1992,7 +2205,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2005,10 +2218,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="800"/>
                   <a:t>O.D</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2016,8 +2229,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="5.8119185013999784E-2"/>
-              <c:y val="0.46906557601498483"/>
+              <c:x val="3.2073490813648291E-2"/>
+              <c:y val="0.38874400496744871"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2033,7 +2246,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2071,7 +2284,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2132,6 +2345,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -4919,42 +5133,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="图表 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D7CC32F-B62D-482C-818E-35CC48FBDEE3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
       <xdr:row>19</xdr:row>
@@ -4985,10 +5163,134 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="3" name="组合 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B51902B-6D5E-4BC4-B5B3-19BEE7B33D45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5585460" y="4213860"/>
+          <a:ext cx="2598420" cy="1859280"/>
+          <a:chOff x="5585460" y="4213860"/>
+          <a:chExt cx="2598420" cy="1859280"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="9" name="图表 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D7CC32F-B62D-482C-818E-35CC48FBDEE3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr/>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="5585460" y="4213860"/>
+          <a:ext cx="2598420" cy="1859280"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="文本框 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00FD7801-D010-425B-8570-5C408039AEE1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7345680" y="4411980"/>
+            <a:ext cx="815340" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>1682cm</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="30000">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>-1</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" baseline="30000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4998,38 +5300,126 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>312419</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457195</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="组合 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAC6D947-FEA6-494B-A445-40EC7BD3E7AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECCC5C87-C794-4AB9-A3F8-BADA76B346C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5554979" y="3154680"/>
+          <a:ext cx="2583176" cy="1985009"/>
+          <a:chOff x="5216159" y="3030096"/>
+          <a:chExt cx="2922001" cy="2109594"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="3" name="图表 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAC6D947-FEA6-494B-A445-40EC7BD3E7AC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr/>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="5216159" y="3030096"/>
+          <a:ext cx="2922001" cy="2109594"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="文本框 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A9200A0-9F41-4180-8C8A-7C2270EFAFD4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7193280" y="3108960"/>
+            <a:ext cx="754380" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>1645cm</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="30000">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>-1</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000" baseline="30000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5047,7 +5437,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5075,16 +5465,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>80010</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5110,6 +5500,72 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.69767</cdr:x>
+      <cdr:y>0.08288</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.98618</cdr:x>
+      <cdr:y>0.18833</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="文本框 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25082730-03A2-4BD0-8385-6C170F578C09}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1828801" y="175260"/>
+          <a:ext cx="756266" cy="222979"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1750cm</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="30000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" baseline="30000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5549,8 +6005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5695,7 +6151,7 @@
         <v>10</v>
       </c>
       <c r="H15">
-        <v>0.86260064999999997</v>
+        <v>0.81260065000000004</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -5709,7 +6165,7 @@
         <v>50</v>
       </c>
       <c r="H16">
-        <v>0.75448870999999995</v>
+        <v>0.70448871000000002</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -5723,7 +6179,7 @@
         <v>150</v>
       </c>
       <c r="H17">
-        <v>0.51122274000000001</v>
+        <v>0.62122274</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -5737,7 +6193,7 @@
         <v>500</v>
       </c>
       <c r="H18">
-        <v>0.47057772999999997</v>
+        <v>0.47057773000000003</v>
       </c>
     </row>
   </sheetData>
@@ -5755,8 +6211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5899,7 +6355,7 @@
         <v>1.7</v>
       </c>
       <c r="C23">
-        <v>0.17</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -5921,7 +6377,7 @@
         <v>0.9</v>
       </c>
       <c r="C25">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -5945,10 +6401,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6048,23 +6504,39 @@
         <v>0.01</v>
       </c>
       <c r="B14">
-        <v>0.38759689922480617</v>
+        <v>0.28759689922480602</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B15">
-        <v>1.1249859376757791E-2</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>0.232498593767578</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>100</v>
+      </c>
+      <c r="B17">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>1000</v>
       </c>
-      <c r="B16">
-        <v>9.9820323417847863E-3</v>
+      <c r="B18">
+        <v>3.39820323417847E-2</v>
       </c>
     </row>
   </sheetData>
